--- a/data_using.xlsx
+++ b/data_using.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F445"/>
+  <dimension ref="A1:G445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -392,6 +392,11 @@
           <t>Label</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Prediction</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -403,15 +408,18 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -425,15 +433,18 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -458,6 +469,9 @@
       <c r="F4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -469,15 +483,18 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -502,6 +519,9 @@
       <c r="F6" t="n">
         <v>0</v>
       </c>
+      <c r="G6" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -524,6 +544,9 @@
       <c r="F7" t="n">
         <v>0</v>
       </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -546,6 +569,9 @@
       <c r="F8" t="n">
         <v>0</v>
       </c>
+      <c r="G8" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -568,6 +594,9 @@
       <c r="F9" t="n">
         <v>1</v>
       </c>
+      <c r="G9" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -579,15 +608,18 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -612,6 +644,9 @@
       <c r="F11" t="n">
         <v>0</v>
       </c>
+      <c r="G11" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -634,6 +669,9 @@
       <c r="F12" t="n">
         <v>1</v>
       </c>
+      <c r="G12" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -656,6 +694,9 @@
       <c r="F13" t="n">
         <v>1</v>
       </c>
+      <c r="G13" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -678,6 +719,9 @@
       <c r="F14" t="n">
         <v>0</v>
       </c>
+      <c r="G14" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -700,6 +744,9 @@
       <c r="F15" t="n">
         <v>1</v>
       </c>
+      <c r="G15" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -722,6 +769,9 @@
       <c r="F16" t="n">
         <v>0</v>
       </c>
+      <c r="G16" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -744,6 +794,9 @@
       <c r="F17" t="n">
         <v>1</v>
       </c>
+      <c r="G17" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -766,6 +819,9 @@
       <c r="F18" t="n">
         <v>1</v>
       </c>
+      <c r="G18" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -788,6 +844,9 @@
       <c r="F19" t="n">
         <v>0</v>
       </c>
+      <c r="G19" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -810,6 +869,9 @@
       <c r="F20" t="n">
         <v>0</v>
       </c>
+      <c r="G20" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -832,6 +894,9 @@
       <c r="F21" t="n">
         <v>0</v>
       </c>
+      <c r="G21" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -843,15 +908,18 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -876,6 +944,9 @@
       <c r="F23" t="n">
         <v>1</v>
       </c>
+      <c r="G23" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -898,6 +969,9 @@
       <c r="F24" t="n">
         <v>1</v>
       </c>
+      <c r="G24" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -909,15 +983,18 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -931,15 +1008,18 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -964,6 +1044,9 @@
       <c r="F27" t="n">
         <v>0</v>
       </c>
+      <c r="G27" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -986,6 +1069,9 @@
       <c r="F28" t="n">
         <v>0</v>
       </c>
+      <c r="G28" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1008,6 +1094,9 @@
       <c r="F29" t="n">
         <v>0</v>
       </c>
+      <c r="G29" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1030,6 +1119,9 @@
       <c r="F30" t="n">
         <v>0</v>
       </c>
+      <c r="G30" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1052,6 +1144,9 @@
       <c r="F31" t="n">
         <v>1</v>
       </c>
+      <c r="G31" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1074,6 +1169,9 @@
       <c r="F32" t="n">
         <v>0</v>
       </c>
+      <c r="G32" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1096,6 +1194,9 @@
       <c r="F33" t="n">
         <v>0</v>
       </c>
+      <c r="G33" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1107,15 +1208,18 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1140,6 +1244,9 @@
       <c r="F35" t="n">
         <v>1</v>
       </c>
+      <c r="G35" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1151,15 +1258,18 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1184,6 +1294,9 @@
       <c r="F37" t="n">
         <v>0</v>
       </c>
+      <c r="G37" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1206,6 +1319,9 @@
       <c r="F38" t="n">
         <v>1</v>
       </c>
+      <c r="G38" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1217,15 +1333,18 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1239,15 +1358,18 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1261,15 +1383,18 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1294,6 +1419,9 @@
       <c r="F42" t="n">
         <v>1</v>
       </c>
+      <c r="G42" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1316,6 +1444,9 @@
       <c r="F43" t="n">
         <v>0</v>
       </c>
+      <c r="G43" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1338,6 +1469,9 @@
       <c r="F44" t="n">
         <v>1</v>
       </c>
+      <c r="G44" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1349,15 +1483,18 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1382,6 +1519,9 @@
       <c r="F46" t="n">
         <v>0</v>
       </c>
+      <c r="G46" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1404,6 +1544,9 @@
       <c r="F47" t="n">
         <v>1</v>
       </c>
+      <c r="G47" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1415,15 +1558,18 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,6 +1594,9 @@
       <c r="F49" t="n">
         <v>0</v>
       </c>
+      <c r="G49" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1470,6 +1619,9 @@
       <c r="F50" t="n">
         <v>0</v>
       </c>
+      <c r="G50" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1492,6 +1644,9 @@
       <c r="F51" t="n">
         <v>0</v>
       </c>
+      <c r="G51" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1514,6 +1669,9 @@
       <c r="F52" t="n">
         <v>0</v>
       </c>
+      <c r="G52" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1536,6 +1694,9 @@
       <c r="F53" t="n">
         <v>1</v>
       </c>
+      <c r="G53" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1547,15 +1708,18 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1580,6 +1744,9 @@
       <c r="F55" t="n">
         <v>0</v>
       </c>
+      <c r="G55" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1602,6 +1769,9 @@
       <c r="F56" t="n">
         <v>0</v>
       </c>
+      <c r="G56" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1624,6 +1794,9 @@
       <c r="F57" t="n">
         <v>0</v>
       </c>
+      <c r="G57" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1646,6 +1819,9 @@
       <c r="F58" t="n">
         <v>1</v>
       </c>
+      <c r="G58" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1668,6 +1844,9 @@
       <c r="F59" t="n">
         <v>0</v>
       </c>
+      <c r="G59" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1690,6 +1869,9 @@
       <c r="F60" t="n">
         <v>0</v>
       </c>
+      <c r="G60" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1712,6 +1894,9 @@
       <c r="F61" t="n">
         <v>0</v>
       </c>
+      <c r="G61" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1723,15 +1908,18 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1756,6 +1944,9 @@
       <c r="F63" t="n">
         <v>0</v>
       </c>
+      <c r="G63" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1778,6 +1969,9 @@
       <c r="F64" t="n">
         <v>1</v>
       </c>
+      <c r="G64" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -1800,6 +1994,9 @@
       <c r="F65" t="n">
         <v>1</v>
       </c>
+      <c r="G65" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -1822,6 +2019,9 @@
       <c r="F66" t="n">
         <v>1</v>
       </c>
+      <c r="G66" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -1844,6 +2044,9 @@
       <c r="F67" t="n">
         <v>0</v>
       </c>
+      <c r="G67" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -1855,15 +2058,18 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1888,6 +2094,9 @@
       <c r="F69" t="n">
         <v>1</v>
       </c>
+      <c r="G69" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -1910,6 +2119,9 @@
       <c r="F70" t="n">
         <v>0</v>
       </c>
+      <c r="G70" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -1921,15 +2133,18 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1943,15 +2158,18 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1965,15 +2183,18 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1998,6 +2219,9 @@
       <c r="F74" t="n">
         <v>1</v>
       </c>
+      <c r="G74" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2020,6 +2244,9 @@
       <c r="F75" t="n">
         <v>1</v>
       </c>
+      <c r="G75" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2031,15 +2258,18 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2053,15 +2283,18 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2086,6 +2319,9 @@
       <c r="F78" t="n">
         <v>1</v>
       </c>
+      <c r="G78" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2097,15 +2333,18 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2130,6 +2369,9 @@
       <c r="F80" t="n">
         <v>0</v>
       </c>
+      <c r="G80" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2141,15 +2383,18 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2174,6 +2419,9 @@
       <c r="F82" t="n">
         <v>0</v>
       </c>
+      <c r="G82" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2196,6 +2444,9 @@
       <c r="F83" t="n">
         <v>0</v>
       </c>
+      <c r="G83" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2207,15 +2458,18 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
       </c>
       <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2240,6 +2494,9 @@
       <c r="F85" t="n">
         <v>0</v>
       </c>
+      <c r="G85" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2262,6 +2519,9 @@
       <c r="F86" t="n">
         <v>0</v>
       </c>
+      <c r="G86" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2273,15 +2533,18 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2295,15 +2558,18 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2328,6 +2594,9 @@
       <c r="F89" t="n">
         <v>0</v>
       </c>
+      <c r="G89" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2350,6 +2619,9 @@
       <c r="F90" t="n">
         <v>0</v>
       </c>
+      <c r="G90" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2372,6 +2644,9 @@
       <c r="F91" t="n">
         <v>1</v>
       </c>
+      <c r="G91" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2383,15 +2658,18 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2405,16 +2683,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -2438,6 +2719,9 @@
       <c r="F94" t="n">
         <v>1</v>
       </c>
+      <c r="G94" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2460,6 +2744,9 @@
       <c r="F95" t="n">
         <v>0</v>
       </c>
+      <c r="G95" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2482,6 +2769,9 @@
       <c r="F96" t="n">
         <v>1</v>
       </c>
+      <c r="G96" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2504,6 +2794,9 @@
       <c r="F97" t="n">
         <v>0</v>
       </c>
+      <c r="G97" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2526,6 +2819,9 @@
       <c r="F98" t="n">
         <v>0</v>
       </c>
+      <c r="G98" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2548,6 +2844,9 @@
       <c r="F99" t="n">
         <v>1</v>
       </c>
+      <c r="G99" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2559,15 +2858,18 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2592,6 +2894,9 @@
       <c r="F101" t="n">
         <v>0</v>
       </c>
+      <c r="G101" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2614,6 +2919,9 @@
       <c r="F102" t="n">
         <v>0</v>
       </c>
+      <c r="G102" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -2636,6 +2944,9 @@
       <c r="F103" t="n">
         <v>0</v>
       </c>
+      <c r="G103" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -2658,6 +2969,9 @@
       <c r="F104" t="n">
         <v>1</v>
       </c>
+      <c r="G104" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -2680,6 +2994,9 @@
       <c r="F105" t="n">
         <v>1</v>
       </c>
+      <c r="G105" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -2691,15 +3008,18 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2724,6 +3044,9 @@
       <c r="F107" t="n">
         <v>0</v>
       </c>
+      <c r="G107" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -2746,6 +3069,9 @@
       <c r="F108" t="n">
         <v>0</v>
       </c>
+      <c r="G108" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -2768,6 +3094,9 @@
       <c r="F109" t="n">
         <v>1</v>
       </c>
+      <c r="G109" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -2790,6 +3119,9 @@
       <c r="F110" t="n">
         <v>1</v>
       </c>
+      <c r="G110" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -2812,6 +3144,9 @@
       <c r="F111" t="n">
         <v>1</v>
       </c>
+      <c r="G111" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -2834,6 +3169,9 @@
       <c r="F112" t="n">
         <v>1</v>
       </c>
+      <c r="G112" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -2856,6 +3194,9 @@
       <c r="F113" t="n">
         <v>0</v>
       </c>
+      <c r="G113" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -2878,6 +3219,9 @@
       <c r="F114" t="n">
         <v>0</v>
       </c>
+      <c r="G114" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -2900,6 +3244,9 @@
       <c r="F115" t="n">
         <v>0</v>
       </c>
+      <c r="G115" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -2922,6 +3269,9 @@
       <c r="F116" t="n">
         <v>0</v>
       </c>
+      <c r="G116" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -2944,6 +3294,9 @@
       <c r="F117" t="n">
         <v>0</v>
       </c>
+      <c r="G117" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -2966,6 +3319,9 @@
       <c r="F118" t="n">
         <v>1</v>
       </c>
+      <c r="G118" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -2988,6 +3344,9 @@
       <c r="F119" t="n">
         <v>1</v>
       </c>
+      <c r="G119" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3010,6 +3369,9 @@
       <c r="F120" t="n">
         <v>1</v>
       </c>
+      <c r="G120" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3032,6 +3394,9 @@
       <c r="F121" t="n">
         <v>1</v>
       </c>
+      <c r="G121" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -3043,15 +3408,18 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3065,15 +3433,18 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
+        <v>1</v>
+      </c>
+      <c r="G123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,6 +3469,9 @@
       <c r="F124" t="n">
         <v>0</v>
       </c>
+      <c r="G124" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3109,15 +3483,18 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
       </c>
       <c r="F125" t="n">
+        <v>1</v>
+      </c>
+      <c r="G125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3131,15 +3508,18 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
       </c>
       <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,6 +3544,9 @@
       <c r="F127" t="n">
         <v>0</v>
       </c>
+      <c r="G127" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3186,6 +3569,9 @@
       <c r="F128" t="n">
         <v>0</v>
       </c>
+      <c r="G128" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3208,6 +3594,9 @@
       <c r="F129" t="n">
         <v>0</v>
       </c>
+      <c r="G129" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3230,6 +3619,9 @@
       <c r="F130" t="n">
         <v>0</v>
       </c>
+      <c r="G130" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3241,15 +3633,18 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
       </c>
       <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3274,6 +3669,9 @@
       <c r="F132" t="n">
         <v>0</v>
       </c>
+      <c r="G132" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3296,6 +3694,9 @@
       <c r="F133" t="n">
         <v>0</v>
       </c>
+      <c r="G133" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3318,6 +3719,9 @@
       <c r="F134" t="n">
         <v>1</v>
       </c>
+      <c r="G134" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3340,6 +3744,9 @@
       <c r="F135" t="n">
         <v>0</v>
       </c>
+      <c r="G135" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3362,6 +3769,9 @@
       <c r="F136" t="n">
         <v>1</v>
       </c>
+      <c r="G136" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3384,6 +3794,9 @@
       <c r="F137" t="n">
         <v>0</v>
       </c>
+      <c r="G137" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3406,6 +3819,9 @@
       <c r="F138" t="n">
         <v>1</v>
       </c>
+      <c r="G138" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3428,6 +3844,9 @@
       <c r="F139" t="n">
         <v>1</v>
       </c>
+      <c r="G139" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3439,15 +3858,18 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3472,6 +3894,9 @@
       <c r="F141" t="n">
         <v>1</v>
       </c>
+      <c r="G141" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3494,6 +3919,9 @@
       <c r="F142" t="n">
         <v>0</v>
       </c>
+      <c r="G142" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -3505,15 +3933,18 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
       </c>
       <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3527,15 +3958,18 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
       </c>
       <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3560,6 +3994,9 @@
       <c r="F145" t="n">
         <v>1</v>
       </c>
+      <c r="G145" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -3582,6 +4019,9 @@
       <c r="F146" t="n">
         <v>0</v>
       </c>
+      <c r="G146" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -3593,15 +4033,18 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D147" t="n">
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147" t="n">
+        <v>1</v>
+      </c>
+      <c r="G147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3626,6 +4069,9 @@
       <c r="F148" t="n">
         <v>0</v>
       </c>
+      <c r="G148" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -3637,15 +4083,18 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
       </c>
       <c r="F149" t="n">
+        <v>1</v>
+      </c>
+      <c r="G149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3659,15 +4108,18 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D150" t="n">
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3681,15 +4133,18 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
       </c>
       <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3714,6 +4169,9 @@
       <c r="F152" t="n">
         <v>0</v>
       </c>
+      <c r="G152" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -3725,15 +4183,18 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
       </c>
       <c r="F153" t="n">
+        <v>1</v>
+      </c>
+      <c r="G153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3758,6 +4219,9 @@
       <c r="F154" t="n">
         <v>1</v>
       </c>
+      <c r="G154" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -3780,6 +4244,9 @@
       <c r="F155" t="n">
         <v>0</v>
       </c>
+      <c r="G155" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -3802,6 +4269,9 @@
       <c r="F156" t="n">
         <v>0</v>
       </c>
+      <c r="G156" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -3813,15 +4283,18 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3846,6 +4319,9 @@
       <c r="F158" t="n">
         <v>1</v>
       </c>
+      <c r="G158" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -3868,6 +4344,9 @@
       <c r="F159" t="n">
         <v>0</v>
       </c>
+      <c r="G159" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -3890,6 +4369,9 @@
       <c r="F160" t="n">
         <v>0</v>
       </c>
+      <c r="G160" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -3901,15 +4383,18 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3934,6 +4419,9 @@
       <c r="F162" t="n">
         <v>0</v>
       </c>
+      <c r="G162" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -3956,6 +4444,9 @@
       <c r="F163" t="n">
         <v>1</v>
       </c>
+      <c r="G163" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -3967,15 +4458,18 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
       </c>
       <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4000,6 +4494,9 @@
       <c r="F165" t="n">
         <v>0</v>
       </c>
+      <c r="G165" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -4011,15 +4508,18 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
       </c>
       <c r="F166" t="n">
+        <v>1</v>
+      </c>
+      <c r="G166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4033,15 +4533,18 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E167" t="n">
         <v>0</v>
       </c>
       <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4066,6 +4569,9 @@
       <c r="F168" t="n">
         <v>0</v>
       </c>
+      <c r="G168" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -4088,6 +4594,9 @@
       <c r="F169" t="n">
         <v>0</v>
       </c>
+      <c r="G169" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -4110,6 +4619,9 @@
       <c r="F170" t="n">
         <v>0</v>
       </c>
+      <c r="G170" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -4132,6 +4644,9 @@
       <c r="F171" t="n">
         <v>0</v>
       </c>
+      <c r="G171" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -4154,6 +4669,9 @@
       <c r="F172" t="n">
         <v>0</v>
       </c>
+      <c r="G172" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -4176,6 +4694,9 @@
       <c r="F173" t="n">
         <v>1</v>
       </c>
+      <c r="G173" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -4187,15 +4708,18 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
       </c>
       <c r="F174" t="n">
+        <v>1</v>
+      </c>
+      <c r="G174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4220,6 +4744,9 @@
       <c r="F175" t="n">
         <v>1</v>
       </c>
+      <c r="G175" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -4242,6 +4769,9 @@
       <c r="F176" t="n">
         <v>0</v>
       </c>
+      <c r="G176" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -4264,6 +4794,9 @@
       <c r="F177" t="n">
         <v>0</v>
       </c>
+      <c r="G177" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -4286,6 +4819,9 @@
       <c r="F178" t="n">
         <v>1</v>
       </c>
+      <c r="G178" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -4297,15 +4833,18 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E179" t="n">
         <v>0</v>
       </c>
       <c r="F179" t="n">
+        <v>0</v>
+      </c>
+      <c r="G179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4330,6 +4869,9 @@
       <c r="F180" t="n">
         <v>0</v>
       </c>
+      <c r="G180" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -4352,6 +4894,9 @@
       <c r="F181" t="n">
         <v>0</v>
       </c>
+      <c r="G181" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -4363,15 +4908,18 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D182" t="n">
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4385,15 +4933,18 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D183" t="n">
         <v>0</v>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183" t="n">
+        <v>1</v>
+      </c>
+      <c r="G183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4418,6 +4969,9 @@
       <c r="F184" t="n">
         <v>1</v>
       </c>
+      <c r="G184" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -4440,6 +4994,9 @@
       <c r="F185" t="n">
         <v>1</v>
       </c>
+      <c r="G185" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -4462,6 +5019,9 @@
       <c r="F186" t="n">
         <v>0</v>
       </c>
+      <c r="G186" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -4484,6 +5044,9 @@
       <c r="F187" t="n">
         <v>0</v>
       </c>
+      <c r="G187" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -4506,6 +5069,9 @@
       <c r="F188" t="n">
         <v>1</v>
       </c>
+      <c r="G188" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -4517,15 +5083,18 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E189" t="n">
         <v>0</v>
       </c>
       <c r="F189" t="n">
+        <v>1</v>
+      </c>
+      <c r="G189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4539,15 +5108,18 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D190" t="n">
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
+        <v>1</v>
+      </c>
+      <c r="G190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4572,6 +5144,9 @@
       <c r="F191" t="n">
         <v>1</v>
       </c>
+      <c r="G191" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -4583,15 +5158,18 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
       </c>
       <c r="F192" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4616,6 +5194,9 @@
       <c r="F193" t="n">
         <v>0</v>
       </c>
+      <c r="G193" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -4638,6 +5219,9 @@
       <c r="F194" t="n">
         <v>1</v>
       </c>
+      <c r="G194" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -4660,6 +5244,9 @@
       <c r="F195" t="n">
         <v>0</v>
       </c>
+      <c r="G195" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -4682,6 +5269,9 @@
       <c r="F196" t="n">
         <v>0</v>
       </c>
+      <c r="G196" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -4704,6 +5294,9 @@
       <c r="F197" t="n">
         <v>0</v>
       </c>
+      <c r="G197" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -4715,15 +5308,18 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E198" t="n">
         <v>0</v>
       </c>
       <c r="F198" t="n">
+        <v>0</v>
+      </c>
+      <c r="G198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4748,6 +5344,9 @@
       <c r="F199" t="n">
         <v>0</v>
       </c>
+      <c r="G199" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -4770,6 +5369,9 @@
       <c r="F200" t="n">
         <v>0</v>
       </c>
+      <c r="G200" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -4792,6 +5394,9 @@
       <c r="F201" t="n">
         <v>0</v>
       </c>
+      <c r="G201" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -4814,6 +5419,9 @@
       <c r="F202" t="n">
         <v>1</v>
       </c>
+      <c r="G202" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -4836,6 +5444,9 @@
       <c r="F203" t="n">
         <v>1</v>
       </c>
+      <c r="G203" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -4858,6 +5469,9 @@
       <c r="F204" t="n">
         <v>0</v>
       </c>
+      <c r="G204" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -4880,6 +5494,9 @@
       <c r="F205" t="n">
         <v>0</v>
       </c>
+      <c r="G205" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -4902,6 +5519,9 @@
       <c r="F206" t="n">
         <v>0</v>
       </c>
+      <c r="G206" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -4924,6 +5544,9 @@
       <c r="F207" t="n">
         <v>0</v>
       </c>
+      <c r="G207" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -4946,6 +5569,9 @@
       <c r="F208" t="n">
         <v>0</v>
       </c>
+      <c r="G208" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -4968,6 +5594,9 @@
       <c r="F209" t="n">
         <v>0</v>
       </c>
+      <c r="G209" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -4979,15 +5608,18 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D210" t="n">
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210" t="n">
+        <v>0</v>
+      </c>
+      <c r="G210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5012,6 +5644,9 @@
       <c r="F211" t="n">
         <v>1</v>
       </c>
+      <c r="G211" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -5034,6 +5669,9 @@
       <c r="F212" t="n">
         <v>1</v>
       </c>
+      <c r="G212" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -5045,15 +5683,18 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E213" t="n">
         <v>0</v>
       </c>
       <c r="F213" t="n">
+        <v>1</v>
+      </c>
+      <c r="G213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5067,15 +5708,18 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E214" t="n">
         <v>0</v>
       </c>
       <c r="F214" t="n">
+        <v>0</v>
+      </c>
+      <c r="G214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5089,15 +5733,18 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D215" t="n">
         <v>0</v>
       </c>
       <c r="E215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215" t="n">
+        <v>0</v>
+      </c>
+      <c r="G215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5122,6 +5769,9 @@
       <c r="F216" t="n">
         <v>1</v>
       </c>
+      <c r="G216" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -5144,6 +5794,9 @@
       <c r="F217" t="n">
         <v>0</v>
       </c>
+      <c r="G217" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -5166,6 +5819,9 @@
       <c r="F218" t="n">
         <v>0</v>
       </c>
+      <c r="G218" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -5188,6 +5844,9 @@
       <c r="F219" t="n">
         <v>1</v>
       </c>
+      <c r="G219" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -5210,6 +5869,9 @@
       <c r="F220" t="n">
         <v>0</v>
       </c>
+      <c r="G220" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -5232,6 +5894,9 @@
       <c r="F221" t="n">
         <v>0</v>
       </c>
+      <c r="G221" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -5243,15 +5908,18 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E222" t="n">
         <v>0</v>
       </c>
       <c r="F222" t="n">
+        <v>1</v>
+      </c>
+      <c r="G222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5265,15 +5933,18 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E223" t="n">
         <v>0</v>
       </c>
       <c r="F223" t="n">
+        <v>1</v>
+      </c>
+      <c r="G223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5298,6 +5969,9 @@
       <c r="F224" t="n">
         <v>0</v>
       </c>
+      <c r="G224" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -5320,6 +5994,9 @@
       <c r="F225" t="n">
         <v>0</v>
       </c>
+      <c r="G225" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -5342,6 +6019,9 @@
       <c r="F226" t="n">
         <v>0</v>
       </c>
+      <c r="G226" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -5353,15 +6033,18 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D227" t="n">
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227" t="n">
+        <v>0</v>
+      </c>
+      <c r="G227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5386,6 +6069,9 @@
       <c r="F228" t="n">
         <v>0</v>
       </c>
+      <c r="G228" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -5397,15 +6083,18 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D229" t="n">
         <v>0</v>
       </c>
       <c r="E229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229" t="n">
+        <v>0</v>
+      </c>
+      <c r="G229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5419,15 +6108,18 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E230" t="n">
         <v>0</v>
       </c>
       <c r="F230" t="n">
+        <v>0</v>
+      </c>
+      <c r="G230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5452,6 +6144,9 @@
       <c r="F231" t="n">
         <v>1</v>
       </c>
+      <c r="G231" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -5474,6 +6169,9 @@
       <c r="F232" t="n">
         <v>0</v>
       </c>
+      <c r="G232" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -5496,6 +6194,9 @@
       <c r="F233" t="n">
         <v>0</v>
       </c>
+      <c r="G233" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -5518,6 +6219,9 @@
       <c r="F234" t="n">
         <v>0</v>
       </c>
+      <c r="G234" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -5540,6 +6244,9 @@
       <c r="F235" t="n">
         <v>1</v>
       </c>
+      <c r="G235" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -5562,6 +6269,9 @@
       <c r="F236" t="n">
         <v>1</v>
       </c>
+      <c r="G236" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -5584,6 +6294,9 @@
       <c r="F237" t="n">
         <v>0</v>
       </c>
+      <c r="G237" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -5606,6 +6319,9 @@
       <c r="F238" t="n">
         <v>1</v>
       </c>
+      <c r="G238" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -5628,6 +6344,9 @@
       <c r="F239" t="n">
         <v>0</v>
       </c>
+      <c r="G239" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -5650,6 +6369,9 @@
       <c r="F240" t="n">
         <v>0</v>
       </c>
+      <c r="G240" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -5672,6 +6394,9 @@
       <c r="F241" t="n">
         <v>0</v>
       </c>
+      <c r="G241" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -5683,15 +6408,18 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E242" t="n">
         <v>0</v>
       </c>
       <c r="F242" t="n">
+        <v>0</v>
+      </c>
+      <c r="G242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5716,6 +6444,9 @@
       <c r="F243" t="n">
         <v>0</v>
       </c>
+      <c r="G243" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -5738,6 +6469,9 @@
       <c r="F244" t="n">
         <v>1</v>
       </c>
+      <c r="G244" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -5749,15 +6483,18 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E245" t="n">
         <v>0</v>
       </c>
       <c r="F245" t="n">
+        <v>0</v>
+      </c>
+      <c r="G245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5771,15 +6508,18 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E246" t="n">
         <v>0</v>
       </c>
       <c r="F246" t="n">
+        <v>0</v>
+      </c>
+      <c r="G246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5804,6 +6544,9 @@
       <c r="F247" t="n">
         <v>1</v>
       </c>
+      <c r="G247" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -5826,6 +6569,9 @@
       <c r="F248" t="n">
         <v>0</v>
       </c>
+      <c r="G248" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -5848,6 +6594,9 @@
       <c r="F249" t="n">
         <v>1</v>
       </c>
+      <c r="G249" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -5859,15 +6608,18 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E250" t="n">
         <v>0</v>
       </c>
       <c r="F250" t="n">
+        <v>1</v>
+      </c>
+      <c r="G250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5892,6 +6644,9 @@
       <c r="F251" t="n">
         <v>1</v>
       </c>
+      <c r="G251" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -5914,6 +6669,9 @@
       <c r="F252" t="n">
         <v>1</v>
       </c>
+      <c r="G252" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -5936,6 +6694,9 @@
       <c r="F253" t="n">
         <v>0</v>
       </c>
+      <c r="G253" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -5958,6 +6719,9 @@
       <c r="F254" t="n">
         <v>0</v>
       </c>
+      <c r="G254" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -5980,6 +6744,9 @@
       <c r="F255" t="n">
         <v>0</v>
       </c>
+      <c r="G255" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -5991,16 +6758,19 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D256" t="n">
         <v>0</v>
       </c>
       <c r="E256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256" t="n">
         <v>0</v>
+      </c>
+      <c r="G256" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -6013,15 +6783,18 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E257" t="n">
         <v>0</v>
       </c>
       <c r="F257" t="n">
+        <v>1</v>
+      </c>
+      <c r="G257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6046,6 +6819,9 @@
       <c r="F258" t="n">
         <v>1</v>
       </c>
+      <c r="G258" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -6057,16 +6833,19 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E259" t="n">
         <v>0</v>
       </c>
       <c r="F259" t="n">
         <v>0</v>
+      </c>
+      <c r="G259" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -6079,15 +6858,18 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E260" t="n">
         <v>0</v>
       </c>
       <c r="F260" t="n">
+        <v>1</v>
+      </c>
+      <c r="G260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6112,6 +6894,9 @@
       <c r="F261" t="n">
         <v>1</v>
       </c>
+      <c r="G261" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -6123,16 +6908,19 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D262" t="n">
         <v>0</v>
       </c>
       <c r="E262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F262" t="n">
         <v>0</v>
+      </c>
+      <c r="G262" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -6156,6 +6944,9 @@
       <c r="F263" t="n">
         <v>0</v>
       </c>
+      <c r="G263" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -6167,15 +6958,18 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E264" t="n">
         <v>0</v>
       </c>
       <c r="F264" t="n">
+        <v>1</v>
+      </c>
+      <c r="G264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6189,15 +6983,18 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E265" t="n">
         <v>0</v>
       </c>
       <c r="F265" t="n">
+        <v>1</v>
+      </c>
+      <c r="G265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,15 +7008,18 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E266" t="n">
         <v>0</v>
       </c>
       <c r="F266" t="n">
+        <v>1</v>
+      </c>
+      <c r="G266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6244,6 +7044,9 @@
       <c r="F267" t="n">
         <v>0</v>
       </c>
+      <c r="G267" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -6266,6 +7069,9 @@
       <c r="F268" t="n">
         <v>0</v>
       </c>
+      <c r="G268" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -6288,6 +7094,9 @@
       <c r="F269" t="n">
         <v>0</v>
       </c>
+      <c r="G269" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -6310,6 +7119,9 @@
       <c r="F270" t="n">
         <v>0</v>
       </c>
+      <c r="G270" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -6332,6 +7144,9 @@
       <c r="F271" t="n">
         <v>0</v>
       </c>
+      <c r="G271" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -6343,15 +7158,18 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E272" t="n">
         <v>0</v>
       </c>
       <c r="F272" t="n">
+        <v>0</v>
+      </c>
+      <c r="G272" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6376,6 +7194,9 @@
       <c r="F273" t="n">
         <v>1</v>
       </c>
+      <c r="G273" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -6387,16 +7208,19 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E274" t="n">
         <v>0</v>
       </c>
       <c r="F274" t="n">
         <v>0</v>
+      </c>
+      <c r="G274" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -6409,16 +7233,19 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E275" t="n">
         <v>0</v>
       </c>
       <c r="F275" t="n">
         <v>0</v>
+      </c>
+      <c r="G275" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -6442,6 +7269,9 @@
       <c r="F276" t="n">
         <v>1</v>
       </c>
+      <c r="G276" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -6464,6 +7294,9 @@
       <c r="F277" t="n">
         <v>1</v>
       </c>
+      <c r="G277" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -6475,15 +7308,18 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E278" t="n">
         <v>0</v>
       </c>
       <c r="F278" t="n">
+        <v>1</v>
+      </c>
+      <c r="G278" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6508,6 +7344,9 @@
       <c r="F279" t="n">
         <v>0</v>
       </c>
+      <c r="G279" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -6519,16 +7358,19 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D280" t="n">
         <v>0</v>
       </c>
       <c r="E280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F280" t="n">
         <v>0</v>
+      </c>
+      <c r="G280" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -6552,6 +7394,9 @@
       <c r="F281" t="n">
         <v>0</v>
       </c>
+      <c r="G281" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -6574,6 +7419,9 @@
       <c r="F282" t="n">
         <v>1</v>
       </c>
+      <c r="G282" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -6585,15 +7433,18 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E283" t="n">
         <v>0</v>
       </c>
       <c r="F283" t="n">
+        <v>1</v>
+      </c>
+      <c r="G283" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6607,15 +7458,18 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D284" t="n">
         <v>0</v>
       </c>
       <c r="E284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F284" t="n">
+        <v>0</v>
+      </c>
+      <c r="G284" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6640,6 +7494,9 @@
       <c r="F285" t="n">
         <v>0</v>
       </c>
+      <c r="G285" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -6662,6 +7519,9 @@
       <c r="F286" t="n">
         <v>0</v>
       </c>
+      <c r="G286" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -6684,6 +7544,9 @@
       <c r="F287" t="n">
         <v>0</v>
       </c>
+      <c r="G287" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -6706,6 +7569,9 @@
       <c r="F288" t="n">
         <v>0</v>
       </c>
+      <c r="G288" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -6728,6 +7594,9 @@
       <c r="F289" t="n">
         <v>0</v>
       </c>
+      <c r="G289" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -6750,6 +7619,9 @@
       <c r="F290" t="n">
         <v>0</v>
       </c>
+      <c r="G290" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -6761,16 +7633,19 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D291" t="n">
         <v>0</v>
       </c>
       <c r="E291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F291" t="n">
         <v>0</v>
+      </c>
+      <c r="G291" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -6794,6 +7669,9 @@
       <c r="F292" t="n">
         <v>0</v>
       </c>
+      <c r="G292" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -6808,13 +7686,16 @@
         <v>0</v>
       </c>
       <c r="D293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F293" t="n">
         <v>0</v>
+      </c>
+      <c r="G293" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -6827,15 +7708,18 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E294" t="n">
         <v>0</v>
       </c>
       <c r="F294" t="n">
+        <v>1</v>
+      </c>
+      <c r="G294" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6860,6 +7744,9 @@
       <c r="F295" t="n">
         <v>1</v>
       </c>
+      <c r="G295" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -6882,6 +7769,9 @@
       <c r="F296" t="n">
         <v>1</v>
       </c>
+      <c r="G296" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -6893,15 +7783,18 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E297" t="n">
         <v>0</v>
       </c>
       <c r="F297" t="n">
+        <v>1</v>
+      </c>
+      <c r="G297" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6926,6 +7819,9 @@
       <c r="F298" t="n">
         <v>1</v>
       </c>
+      <c r="G298" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -6937,15 +7833,18 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E299" t="n">
         <v>0</v>
       </c>
       <c r="F299" t="n">
+        <v>1</v>
+      </c>
+      <c r="G299" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6970,6 +7869,9 @@
       <c r="F300" t="n">
         <v>1</v>
       </c>
+      <c r="G300" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -6992,6 +7894,9 @@
       <c r="F301" t="n">
         <v>1</v>
       </c>
+      <c r="G301" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -7014,6 +7919,9 @@
       <c r="F302" t="n">
         <v>1</v>
       </c>
+      <c r="G302" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -7036,6 +7944,9 @@
       <c r="F303" t="n">
         <v>1</v>
       </c>
+      <c r="G303" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -7047,15 +7958,18 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E304" t="n">
         <v>0</v>
       </c>
       <c r="F304" t="n">
+        <v>1</v>
+      </c>
+      <c r="G304" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7080,6 +7994,9 @@
       <c r="F305" t="n">
         <v>1</v>
       </c>
+      <c r="G305" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -7091,15 +8008,18 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E306" t="n">
         <v>0</v>
       </c>
       <c r="F306" t="n">
+        <v>1</v>
+      </c>
+      <c r="G306" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7124,6 +8044,9 @@
       <c r="F307" t="n">
         <v>1</v>
       </c>
+      <c r="G307" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -7135,15 +8058,18 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E308" t="n">
         <v>0</v>
       </c>
       <c r="F308" t="n">
+        <v>1</v>
+      </c>
+      <c r="G308" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7157,16 +8083,19 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E309" t="n">
         <v>0</v>
       </c>
       <c r="F309" t="n">
         <v>0</v>
+      </c>
+      <c r="G309" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="310">
@@ -7190,6 +8119,9 @@
       <c r="F310" t="n">
         <v>0</v>
       </c>
+      <c r="G310" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -7201,16 +8133,19 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E311" t="n">
         <v>0</v>
       </c>
       <c r="F311" t="n">
         <v>0</v>
+      </c>
+      <c r="G311" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="312">
@@ -7223,16 +8158,19 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E312" t="n">
         <v>0</v>
       </c>
       <c r="F312" t="n">
         <v>0</v>
+      </c>
+      <c r="G312" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="313">
@@ -7245,16 +8183,19 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E313" t="n">
         <v>0</v>
       </c>
       <c r="F313" t="n">
         <v>0</v>
+      </c>
+      <c r="G313" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="314">
@@ -7267,16 +8208,19 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E314" t="n">
         <v>0</v>
       </c>
       <c r="F314" t="n">
         <v>0</v>
+      </c>
+      <c r="G314" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="315">
@@ -7300,6 +8244,9 @@
       <c r="F315" t="n">
         <v>1</v>
       </c>
+      <c r="G315" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -7311,16 +8258,19 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E316" t="n">
         <v>0</v>
       </c>
       <c r="F316" t="n">
         <v>0</v>
+      </c>
+      <c r="G316" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="317">
@@ -7336,13 +8286,16 @@
         <v>0</v>
       </c>
       <c r="D317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F317" t="n">
         <v>0</v>
+      </c>
+      <c r="G317" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -7366,6 +8319,9 @@
       <c r="F318" t="n">
         <v>1</v>
       </c>
+      <c r="G318" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -7388,6 +8344,9 @@
       <c r="F319" t="n">
         <v>0</v>
       </c>
+      <c r="G319" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -7399,16 +8358,19 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E320" t="n">
         <v>0</v>
       </c>
       <c r="F320" t="n">
         <v>0</v>
+      </c>
+      <c r="G320" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="321">
@@ -7421,16 +8383,19 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E321" t="n">
         <v>0</v>
       </c>
       <c r="F321" t="n">
         <v>0</v>
+      </c>
+      <c r="G321" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="322">
@@ -7443,16 +8408,19 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E322" t="n">
         <v>0</v>
       </c>
       <c r="F322" t="n">
         <v>0</v>
+      </c>
+      <c r="G322" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="323">
@@ -7476,6 +8444,9 @@
       <c r="F323" t="n">
         <v>1</v>
       </c>
+      <c r="G323" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -7487,16 +8458,19 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E324" t="n">
         <v>0</v>
       </c>
       <c r="F324" t="n">
         <v>0</v>
+      </c>
+      <c r="G324" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="325">
@@ -7512,12 +8486,15 @@
         <v>0</v>
       </c>
       <c r="D325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F325" t="n">
+        <v>1</v>
+      </c>
+      <c r="G325" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7531,16 +8508,19 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E326" t="n">
         <v>0</v>
       </c>
       <c r="F326" t="n">
         <v>1</v>
+      </c>
+      <c r="G326" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="327">
@@ -7553,16 +8533,19 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E327" t="n">
         <v>0</v>
       </c>
       <c r="F327" t="n">
         <v>1</v>
+      </c>
+      <c r="G327" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="328">
@@ -7575,16 +8558,19 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E328" t="n">
         <v>0</v>
       </c>
       <c r="F328" t="n">
         <v>1</v>
+      </c>
+      <c r="G328" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="329">
@@ -7597,16 +8583,19 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E329" t="n">
         <v>0</v>
       </c>
       <c r="F329" t="n">
         <v>1</v>
+      </c>
+      <c r="G329" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="330">
@@ -7630,6 +8619,9 @@
       <c r="F330" t="n">
         <v>1</v>
       </c>
+      <c r="G330" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -7641,16 +8633,19 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E331" t="n">
         <v>0</v>
       </c>
       <c r="F331" t="n">
         <v>1</v>
+      </c>
+      <c r="G331" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="332">
@@ -7663,16 +8658,19 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E332" t="n">
         <v>0</v>
       </c>
       <c r="F332" t="n">
         <v>0</v>
+      </c>
+      <c r="G332" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="333">
@@ -7688,12 +8686,15 @@
         <v>0</v>
       </c>
       <c r="D333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F333" t="n">
+        <v>1</v>
+      </c>
+      <c r="G333" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7718,6 +8719,9 @@
       <c r="F334" t="n">
         <v>1</v>
       </c>
+      <c r="G334" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -7729,16 +8733,19 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E335" t="n">
         <v>0</v>
       </c>
       <c r="F335" t="n">
         <v>1</v>
+      </c>
+      <c r="G335" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="336">
@@ -7751,16 +8758,19 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E336" t="n">
         <v>0</v>
       </c>
       <c r="F336" t="n">
         <v>1</v>
+      </c>
+      <c r="G336" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="337">
@@ -7776,12 +8786,15 @@
         <v>0</v>
       </c>
       <c r="D337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F337" t="n">
+        <v>1</v>
+      </c>
+      <c r="G337" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7795,16 +8808,19 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E338" t="n">
         <v>0</v>
       </c>
       <c r="F338" t="n">
         <v>0</v>
+      </c>
+      <c r="G338" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="339">
@@ -7828,6 +8844,9 @@
       <c r="F339" t="n">
         <v>0</v>
       </c>
+      <c r="G339" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -7839,16 +8858,19 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E340" t="n">
         <v>0</v>
       </c>
       <c r="F340" t="n">
         <v>1</v>
+      </c>
+      <c r="G340" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="341">
@@ -7872,6 +8894,9 @@
       <c r="F341" t="n">
         <v>0</v>
       </c>
+      <c r="G341" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -7883,16 +8908,19 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E342" t="n">
         <v>0</v>
       </c>
       <c r="F342" t="n">
         <v>1</v>
+      </c>
+      <c r="G342" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="343">
@@ -7916,6 +8944,9 @@
       <c r="F343" t="n">
         <v>0</v>
       </c>
+      <c r="G343" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -7927,16 +8958,19 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E344" t="n">
         <v>0</v>
       </c>
       <c r="F344" t="n">
         <v>1</v>
+      </c>
+      <c r="G344" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="345">
@@ -7949,16 +8983,19 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E345" t="n">
         <v>0</v>
       </c>
       <c r="F345" t="n">
         <v>1</v>
+      </c>
+      <c r="G345" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="346">
@@ -7971,16 +9008,19 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E346" t="n">
         <v>0</v>
       </c>
       <c r="F346" t="n">
         <v>0</v>
+      </c>
+      <c r="G346" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="347">
@@ -7993,16 +9033,19 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E347" t="n">
         <v>0</v>
       </c>
       <c r="F347" t="n">
         <v>0</v>
+      </c>
+      <c r="G347" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="348">
@@ -8015,16 +9058,19 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E348" t="n">
         <v>0</v>
       </c>
       <c r="F348" t="n">
         <v>1</v>
+      </c>
+      <c r="G348" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="349">
@@ -8037,16 +9083,19 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E349" t="n">
         <v>0</v>
       </c>
       <c r="F349" t="n">
         <v>0</v>
+      </c>
+      <c r="G349" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="350">
@@ -8059,16 +9108,19 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E350" t="n">
         <v>0</v>
       </c>
       <c r="F350" t="n">
         <v>1</v>
+      </c>
+      <c r="G350" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="351">
@@ -8081,16 +9133,19 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E351" t="n">
         <v>0</v>
       </c>
       <c r="F351" t="n">
         <v>0</v>
+      </c>
+      <c r="G351" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="352">
@@ -8103,16 +9158,19 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E352" t="n">
         <v>0</v>
       </c>
       <c r="F352" t="n">
         <v>1</v>
+      </c>
+      <c r="G352" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="353">
@@ -8125,16 +9183,19 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E353" t="n">
         <v>0</v>
       </c>
       <c r="F353" t="n">
         <v>0</v>
+      </c>
+      <c r="G353" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="354">
@@ -8147,16 +9208,19 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E354" t="n">
         <v>0</v>
       </c>
       <c r="F354" t="n">
         <v>0</v>
+      </c>
+      <c r="G354" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="355">
@@ -8180,6 +9244,9 @@
       <c r="F355" t="n">
         <v>0</v>
       </c>
+      <c r="G355" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -8202,6 +9269,9 @@
       <c r="F356" t="n">
         <v>0</v>
       </c>
+      <c r="G356" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -8213,16 +9283,19 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E357" t="n">
         <v>0</v>
       </c>
       <c r="F357" t="n">
         <v>0</v>
+      </c>
+      <c r="G357" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="358">
@@ -8235,16 +9308,19 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E358" t="n">
         <v>0</v>
       </c>
       <c r="F358" t="n">
         <v>0</v>
+      </c>
+      <c r="G358" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="359">
@@ -8257,16 +9333,19 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E359" t="n">
         <v>0</v>
       </c>
       <c r="F359" t="n">
         <v>0</v>
+      </c>
+      <c r="G359" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="360">
@@ -8279,16 +9358,19 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E360" t="n">
         <v>0</v>
       </c>
       <c r="F360" t="n">
         <v>0</v>
+      </c>
+      <c r="G360" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="361">
@@ -8312,6 +9394,9 @@
       <c r="F361" t="n">
         <v>1</v>
       </c>
+      <c r="G361" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -8323,16 +9408,19 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E362" t="n">
         <v>0</v>
       </c>
       <c r="F362" t="n">
         <v>1</v>
+      </c>
+      <c r="G362" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="363">
@@ -8356,6 +9444,9 @@
       <c r="F363" t="n">
         <v>0</v>
       </c>
+      <c r="G363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -8378,6 +9469,9 @@
       <c r="F364" t="n">
         <v>0</v>
       </c>
+      <c r="G364" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -8389,16 +9483,19 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E365" t="n">
         <v>0</v>
       </c>
       <c r="F365" t="n">
         <v>0</v>
+      </c>
+      <c r="G365" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="366">
@@ -8411,16 +9508,19 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E366" t="n">
         <v>0</v>
       </c>
       <c r="F366" t="n">
         <v>1</v>
+      </c>
+      <c r="G366" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="367">
@@ -8444,6 +9544,9 @@
       <c r="F367" t="n">
         <v>0</v>
       </c>
+      <c r="G367" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -8458,13 +9561,16 @@
         <v>0</v>
       </c>
       <c r="D368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F368" t="n">
         <v>0</v>
+      </c>
+      <c r="G368" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="369">
@@ -8477,16 +9583,19 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E369" t="n">
         <v>0</v>
       </c>
       <c r="F369" t="n">
         <v>0</v>
+      </c>
+      <c r="G369" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="370">
@@ -8499,16 +9608,19 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E370" t="n">
         <v>0</v>
       </c>
       <c r="F370" t="n">
         <v>0</v>
+      </c>
+      <c r="G370" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="371">
@@ -8532,6 +9644,9 @@
       <c r="F371" t="n">
         <v>0</v>
       </c>
+      <c r="G371" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -8543,16 +9658,19 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E372" t="n">
         <v>0</v>
       </c>
       <c r="F372" t="n">
         <v>0</v>
+      </c>
+      <c r="G372" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="373">
@@ -8576,6 +9694,9 @@
       <c r="F373" t="n">
         <v>0</v>
       </c>
+      <c r="G373" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -8598,6 +9719,9 @@
       <c r="F374" t="n">
         <v>0</v>
       </c>
+      <c r="G374" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -8609,16 +9733,19 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
       </c>
       <c r="F375" t="n">
         <v>1</v>
+      </c>
+      <c r="G375" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="376">
@@ -8634,13 +9761,16 @@
         <v>0</v>
       </c>
       <c r="D376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F376" t="n">
         <v>0</v>
+      </c>
+      <c r="G376" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="377">
@@ -8653,16 +9783,19 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
       </c>
       <c r="F377" t="n">
         <v>0</v>
+      </c>
+      <c r="G377" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="378">
@@ -8675,16 +9808,19 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
       </c>
       <c r="F378" t="n">
         <v>0</v>
+      </c>
+      <c r="G378" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="379">
@@ -8697,16 +9833,19 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
       </c>
       <c r="F379" t="n">
         <v>1</v>
+      </c>
+      <c r="G379" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="380">
@@ -8719,16 +9858,19 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
       </c>
       <c r="F380" t="n">
         <v>1</v>
+      </c>
+      <c r="G380" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="381">
@@ -8744,12 +9886,15 @@
         <v>0</v>
       </c>
       <c r="D381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F381" t="n">
+        <v>0</v>
+      </c>
+      <c r="G381" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8763,16 +9908,19 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
       </c>
       <c r="F382" t="n">
         <v>1</v>
+      </c>
+      <c r="G382" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="383">
@@ -8785,16 +9933,19 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E383" t="n">
         <v>0</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
+      </c>
+      <c r="G383" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="384">
@@ -8807,16 +9958,19 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E384" t="n">
         <v>0</v>
       </c>
       <c r="F384" t="n">
         <v>1</v>
+      </c>
+      <c r="G384" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="385">
@@ -8840,6 +9994,9 @@
       <c r="F385" t="n">
         <v>1</v>
       </c>
+      <c r="G385" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -8851,16 +10008,19 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E386" t="n">
         <v>0</v>
       </c>
       <c r="F386" t="n">
         <v>1</v>
+      </c>
+      <c r="G386" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="387">
@@ -8873,16 +10033,19 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E387" t="n">
         <v>0</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
+      </c>
+      <c r="G387" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="388">
@@ -8895,16 +10058,19 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E388" t="n">
         <v>0</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
+      </c>
+      <c r="G388" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="389">
@@ -8917,16 +10083,19 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E389" t="n">
         <v>0</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
+      </c>
+      <c r="G389" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="390">
@@ -8939,16 +10108,19 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E390" t="n">
         <v>0</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
+      </c>
+      <c r="G390" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="391">
@@ -8964,12 +10136,15 @@
         <v>0</v>
       </c>
       <c r="D391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F391" t="n">
+        <v>1</v>
+      </c>
+      <c r="G391" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8986,13 +10161,16 @@
         <v>0</v>
       </c>
       <c r="D392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
+      </c>
+      <c r="G392" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="393">
@@ -9005,16 +10183,19 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E393" t="n">
         <v>0</v>
       </c>
       <c r="F393" t="n">
         <v>1</v>
+      </c>
+      <c r="G393" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="394">
@@ -9027,16 +10208,19 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E394" t="n">
         <v>0</v>
       </c>
       <c r="F394" t="n">
         <v>1</v>
+      </c>
+      <c r="G394" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="395">
@@ -9049,16 +10233,19 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E395" t="n">
         <v>0</v>
       </c>
       <c r="F395" t="n">
         <v>1</v>
+      </c>
+      <c r="G395" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="396">
@@ -9074,12 +10261,15 @@
         <v>0</v>
       </c>
       <c r="D396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F396" t="n">
+        <v>1</v>
+      </c>
+      <c r="G396" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9093,16 +10283,19 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E397" t="n">
         <v>0</v>
       </c>
       <c r="F397" t="n">
         <v>1</v>
+      </c>
+      <c r="G397" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="398">
@@ -9126,6 +10319,9 @@
       <c r="F398" t="n">
         <v>0</v>
       </c>
+      <c r="G398" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -9140,13 +10336,16 @@
         <v>0</v>
       </c>
       <c r="D399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F399" t="n">
         <v>0</v>
+      </c>
+      <c r="G399" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="400">
@@ -9159,16 +10358,19 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D400" t="n">
         <v>0</v>
       </c>
       <c r="E400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F400" t="n">
         <v>0</v>
+      </c>
+      <c r="G400" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="401">
@@ -9184,13 +10386,16 @@
         <v>0</v>
       </c>
       <c r="D401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F401" t="n">
         <v>0</v>
+      </c>
+      <c r="G401" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="402">
@@ -9203,16 +10408,19 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E402" t="n">
         <v>0</v>
       </c>
       <c r="F402" t="n">
         <v>1</v>
+      </c>
+      <c r="G402" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="403">
@@ -9228,12 +10436,15 @@
         <v>0</v>
       </c>
       <c r="D403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F403" t="n">
+        <v>0</v>
+      </c>
+      <c r="G403" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9247,16 +10458,19 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D404" t="n">
         <v>0</v>
       </c>
       <c r="E404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F404" t="n">
         <v>0</v>
+      </c>
+      <c r="G404" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="405">
@@ -9272,13 +10486,16 @@
         <v>0</v>
       </c>
       <c r="D405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F405" t="n">
         <v>0</v>
+      </c>
+      <c r="G405" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="406">
@@ -9291,16 +10508,19 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D406" t="n">
         <v>0</v>
       </c>
       <c r="E406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F406" t="n">
         <v>0</v>
+      </c>
+      <c r="G406" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="407">
@@ -9316,12 +10536,15 @@
         <v>0</v>
       </c>
       <c r="D407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F407" t="n">
+        <v>0</v>
+      </c>
+      <c r="G407" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9346,6 +10569,9 @@
       <c r="F408" t="n">
         <v>0</v>
       </c>
+      <c r="G408" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -9357,16 +10583,19 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D409" t="n">
         <v>0</v>
       </c>
       <c r="E409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F409" t="n">
         <v>0</v>
+      </c>
+      <c r="G409" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="410">
@@ -9379,16 +10608,19 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D410" t="n">
         <v>0</v>
       </c>
       <c r="E410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F410" t="n">
         <v>0</v>
+      </c>
+      <c r="G410" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="411">
@@ -9401,16 +10633,19 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D411" t="n">
         <v>0</v>
       </c>
       <c r="E411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F411" t="n">
         <v>0</v>
+      </c>
+      <c r="G411" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="412">
@@ -9423,16 +10658,19 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D412" t="n">
         <v>0</v>
       </c>
       <c r="E412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F412" t="n">
         <v>0</v>
+      </c>
+      <c r="G412" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="413">
@@ -9445,16 +10683,19 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D413" t="n">
         <v>0</v>
       </c>
       <c r="E413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F413" t="n">
         <v>1</v>
+      </c>
+      <c r="G413" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="414">
@@ -9467,16 +10708,19 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D414" t="n">
         <v>0</v>
       </c>
       <c r="E414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F414" t="n">
         <v>1</v>
+      </c>
+      <c r="G414" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="415">
@@ -9492,13 +10736,16 @@
         <v>0</v>
       </c>
       <c r="D415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F415" t="n">
         <v>0</v>
+      </c>
+      <c r="G415" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="416">
@@ -9511,16 +10758,19 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D416" t="n">
         <v>0</v>
       </c>
       <c r="E416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F416" t="n">
         <v>0</v>
+      </c>
+      <c r="G416" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="417">
@@ -9533,16 +10783,19 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D417" t="n">
         <v>0</v>
       </c>
       <c r="E417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F417" t="n">
         <v>0</v>
+      </c>
+      <c r="G417" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="418">
@@ -9555,16 +10808,19 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D418" t="n">
         <v>0</v>
       </c>
       <c r="E418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F418" t="n">
         <v>0</v>
+      </c>
+      <c r="G418" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="419">
@@ -9577,16 +10833,19 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D419" t="n">
         <v>0</v>
       </c>
       <c r="E419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F419" t="n">
         <v>0</v>
+      </c>
+      <c r="G419" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="420">
@@ -9599,16 +10858,19 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D420" t="n">
         <v>0</v>
       </c>
       <c r="E420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F420" t="n">
         <v>0</v>
+      </c>
+      <c r="G420" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="421">
@@ -9624,12 +10886,15 @@
         <v>0</v>
       </c>
       <c r="D421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F421" t="n">
+        <v>1</v>
+      </c>
+      <c r="G421" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9654,6 +10919,9 @@
       <c r="F422" t="n">
         <v>0</v>
       </c>
+      <c r="G422" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
@@ -9665,16 +10933,19 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D423" t="n">
         <v>0</v>
       </c>
       <c r="E423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F423" t="n">
         <v>0</v>
+      </c>
+      <c r="G423" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="424">
@@ -9687,16 +10958,19 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D424" t="n">
         <v>0</v>
       </c>
       <c r="E424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F424" t="n">
         <v>0</v>
+      </c>
+      <c r="G424" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="425">
@@ -9709,16 +10983,19 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D425" t="n">
         <v>0</v>
       </c>
       <c r="E425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F425" t="n">
         <v>0</v>
+      </c>
+      <c r="G425" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="426">
@@ -9731,16 +11008,19 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D426" t="n">
         <v>0</v>
       </c>
       <c r="E426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F426" t="n">
         <v>0</v>
+      </c>
+      <c r="G426" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="427">
@@ -9753,16 +11033,19 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D427" t="n">
         <v>0</v>
       </c>
       <c r="E427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F427" t="n">
         <v>1</v>
+      </c>
+      <c r="G427" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="428">
@@ -9775,16 +11058,19 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D428" t="n">
         <v>0</v>
       </c>
       <c r="E428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F428" t="n">
         <v>1</v>
+      </c>
+      <c r="G428" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="429">
@@ -9797,16 +11083,19 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D429" t="n">
         <v>0</v>
       </c>
       <c r="E429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F429" t="n">
         <v>1</v>
+      </c>
+      <c r="G429" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="430">
@@ -9819,16 +11108,19 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D430" t="n">
         <v>0</v>
       </c>
       <c r="E430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F430" t="n">
         <v>1</v>
+      </c>
+      <c r="G430" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="431">
@@ -9841,16 +11133,19 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D431" t="n">
         <v>0</v>
       </c>
       <c r="E431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F431" t="n">
         <v>1</v>
+      </c>
+      <c r="G431" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="432">
@@ -9863,16 +11158,19 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D432" t="n">
         <v>0</v>
       </c>
       <c r="E432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F432" t="n">
         <v>1</v>
+      </c>
+      <c r="G432" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="433">
@@ -9885,16 +11183,19 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D433" t="n">
         <v>0</v>
       </c>
       <c r="E433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F433" t="n">
         <v>1</v>
+      </c>
+      <c r="G433" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="434">
@@ -9907,16 +11208,19 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D434" t="n">
         <v>0</v>
       </c>
       <c r="E434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F434" t="n">
         <v>1</v>
+      </c>
+      <c r="G434" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="435">
@@ -9929,16 +11233,19 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D435" t="n">
         <v>0</v>
       </c>
       <c r="E435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F435" t="n">
         <v>1</v>
+      </c>
+      <c r="G435" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="436">
@@ -9951,16 +11258,19 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D436" t="n">
         <v>0</v>
       </c>
       <c r="E436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F436" t="n">
         <v>1</v>
+      </c>
+      <c r="G436" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="437">
@@ -9976,12 +11286,15 @@
         <v>0</v>
       </c>
       <c r="D437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F437" t="n">
+        <v>1</v>
+      </c>
+      <c r="G437" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9995,16 +11308,19 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D438" t="n">
         <v>0</v>
       </c>
       <c r="E438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F438" t="n">
         <v>1</v>
+      </c>
+      <c r="G438" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="439">
@@ -10017,16 +11333,19 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D439" t="n">
         <v>0</v>
       </c>
       <c r="E439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F439" t="n">
         <v>1</v>
+      </c>
+      <c r="G439" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="440">
@@ -10039,16 +11358,19 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D440" t="n">
         <v>0</v>
       </c>
       <c r="E440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F440" t="n">
         <v>1</v>
+      </c>
+      <c r="G440" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="441">
@@ -10072,6 +11394,9 @@
       <c r="F441" t="n">
         <v>0</v>
       </c>
+      <c r="G441" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
@@ -10083,16 +11408,19 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D442" t="n">
         <v>0</v>
       </c>
       <c r="E442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F442" t="n">
         <v>0</v>
+      </c>
+      <c r="G442" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="443">
@@ -10108,13 +11436,16 @@
         <v>0</v>
       </c>
       <c r="D443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F443" t="n">
         <v>0</v>
+      </c>
+      <c r="G443" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="444">
@@ -10127,16 +11458,19 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D444" t="n">
         <v>0</v>
       </c>
       <c r="E444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F444" t="n">
         <v>1</v>
+      </c>
+      <c r="G444" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="445">
@@ -10149,16 +11483,19 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D445" t="n">
         <v>0</v>
       </c>
       <c r="E445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F445" t="n">
         <v>0</v>
+      </c>
+      <c r="G445" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
